--- a/mecc_template.xlsx
+++ b/mecc_template.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\MEGAsync\NoteUniv\NoteUniv-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B47047-35A7-4B33-8181-593051AEF773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3D8051-013B-4299-AD04-20705EB551F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1077,7 +1085,7 @@
   </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"MMI1,MMI2,QLIO1,QLIO2,GEII1,GEII2,LPDWEB,LPMN,LPLPI,LPMEQ,LPCSIE,LPIDF,LPIRI"</formula1>
+      <formula1>"MMI,QLIO,GEII,LPDWEB,LPMN,LPLPI,LPMEQ,LPCSIE,LPIDF,LPIRI"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E753:E1088" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
